--- a/Datos_tabulados/Datos_proyecto2022_CD.xlsx
+++ b/Datos_tabulados/Datos_proyecto2022_CD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Tarea_DBT854\Datos_tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122485A6-9B11-40BF-BA89-F09843E96473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC3EC86-E9BD-471D-980F-D9F740BFE3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B8312130-52C5-4688-BF21-A3BC47FB91EB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="16">
   <si>
     <t>EOs</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Vh</t>
+  </si>
+  <si>
+    <t>OD</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -143,6 +146,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -460,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692B653B-FB72-40E5-9153-8D927114C296}">
-  <dimension ref="A1:E406"/>
+  <dimension ref="A1:F406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,7 +481,7 @@
     <col min="5" max="5" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,8 +497,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -502,8 +514,11 @@
       <c r="E2">
         <v>1.107</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="1">
+        <v>1.0669999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -516,8 +531,11 @@
       <c r="E3" s="1">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -530,8 +548,11 @@
       <c r="E4" s="1">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="1">
+        <v>1.135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -544,11 +565,14 @@
       <c r="D5" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E5">
-        <v>0.98299999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -561,11 +585,14 @@
       <c r="D6" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E6">
-        <v>0.85199999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -578,11 +605,14 @@
       <c r="D7" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>0.82899999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="1">
+        <v>0.78799999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -595,11 +625,14 @@
       <c r="D8" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E8">
-        <v>0.73299999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="4">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -612,11 +645,14 @@
       <c r="D9" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E9">
-        <v>0.52700000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="4">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -629,11 +665,14 @@
       <c r="D10" s="2">
         <v>0.04</v>
       </c>
-      <c r="E10">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="4">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.81199999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -646,11 +685,14 @@
       <c r="D11" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E11">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="4">
+        <v>1.056</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -663,11 +705,14 @@
       <c r="D12" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E12">
-        <v>0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" s="4">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -680,11 +725,14 @@
       <c r="D13" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E13">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" s="4">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -697,11 +745,14 @@
       <c r="D14" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E14">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="2">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -714,11 +765,14 @@
       <c r="D15" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E15">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="2">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.93299999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -731,11 +785,14 @@
       <c r="D16" s="2">
         <v>0.04</v>
       </c>
-      <c r="E16">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -748,11 +805,14 @@
       <c r="D17" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E17">
-        <v>0.97299999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.0070000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -765,11 +825,14 @@
       <c r="D18" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E18">
-        <v>1.0920000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="2">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -782,11 +845,14 @@
       <c r="D19" s="2">
         <v>0.04</v>
       </c>
-      <c r="E19">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="2">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.48700000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -799,11 +865,14 @@
       <c r="D20" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E20">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.55799999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -816,11 +885,14 @@
       <c r="D21" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E21">
-        <v>0.64600000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -833,11 +905,14 @@
       <c r="D22" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E22">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="2">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -850,11 +925,14 @@
       <c r="D23" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E23">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E23" s="2">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.49300000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -867,11 +945,14 @@
       <c r="D24" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E24">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E24" s="2">
+        <v>0.316</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -884,11 +965,14 @@
       <c r="D25" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E25">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E25" s="2">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.34600000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -901,11 +985,14 @@
       <c r="D26" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E26">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="2">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -918,11 +1005,14 @@
       <c r="D27" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E27">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E27" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -935,11 +1025,14 @@
       <c r="D28" s="2">
         <v>0.04</v>
       </c>
-      <c r="E28">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.29100000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -952,11 +1045,14 @@
       <c r="D29" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E29">
-        <v>1.056</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.2999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -969,11 +1065,14 @@
       <c r="D30" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E30">
-        <v>1.0549999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E30" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -986,11 +1085,14 @@
       <c r="D31" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E31">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E31" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1003,11 +1105,14 @@
       <c r="D32" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E32">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E32" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5.9999999999999984E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1020,11 +1125,14 @@
       <c r="D33" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E33">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E33" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>9.9999999999999395E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1037,11 +1145,14 @@
       <c r="D34" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E34">
-        <v>0.90500000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E34" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.9999999999999957E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1054,11 +1165,14 @@
       <c r="D35" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E35">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E35" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1071,11 +1185,14 @@
       <c r="D36" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E36">
-        <v>0.40899999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E36" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1088,11 +1205,14 @@
       <c r="D37" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E37">
-        <v>0.53400000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E37" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1105,11 +1225,14 @@
       <c r="D38" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" s="1">
+        <v>-3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1122,11 +1245,14 @@
       <c r="D39" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="1">
+        <v>9.9999999999999395E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1139,11 +1265,14 @@
       <c r="D40" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E40">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E40" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-1.9999999999999948E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1156,11 +1285,14 @@
       <c r="D41" s="2">
         <v>0.126</v>
       </c>
-      <c r="E41">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E41" s="6">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1173,11 +1305,14 @@
       <c r="D42" s="2">
         <v>0.13</v>
       </c>
-      <c r="E42">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E42" s="6">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F42" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1190,11 +1325,14 @@
       <c r="D43" s="2">
         <v>0.13</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="6">
         <v>0.23200000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" s="1">
+        <v>0.10200000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1207,11 +1345,14 @@
       <c r="D44" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="E44">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E44" s="6">
+        <v>0.153</v>
+      </c>
+      <c r="F44" s="1">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1224,11 +1365,14 @@
       <c r="D45" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E45">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E45" s="6">
+        <v>0.183</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.11299999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1241,11 +1385,14 @@
       <c r="D46" s="2">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E46">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E46" s="6">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1258,11 +1405,14 @@
       <c r="D47" s="2">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E47">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E47" s="6">
+        <v>0.129</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4.200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1275,11 +1425,14 @@
       <c r="D48" s="2">
         <v>0.08</v>
       </c>
-      <c r="E48">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E48" s="6">
+        <v>0.126</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1292,11 +1445,14 @@
       <c r="D49" s="2">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="E49">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E49" s="6">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6.5000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1309,11 +1465,14 @@
       <c r="D50" s="2">
         <v>6.2E-2</v>
       </c>
-      <c r="E50">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E50" s="6">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1326,11 +1485,14 @@
       <c r="D51" s="2">
         <v>6.2E-2</v>
       </c>
-      <c r="E51">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E51" s="6">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1343,11 +1505,14 @@
       <c r="D52" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="E52">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E52" s="6">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1360,11 +1525,14 @@
       <c r="D53" s="2">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E53">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E53" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-6.9999999999999923E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1377,11 +1545,14 @@
       <c r="D54" s="2">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="E54">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E54" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>-9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1394,11 +1565,14 @@
       <c r="D55" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E55">
-        <v>0.19400000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E55" s="6">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>-4.9999999999999906E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1411,11 +1585,14 @@
       <c r="D56" s="2">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E56">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E56" s="6">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1428,11 +1605,14 @@
       <c r="D57" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E57">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E57" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1445,11 +1625,14 @@
       <c r="D58" s="2">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="E58">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E58" s="6">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>-9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1462,11 +1645,14 @@
       <c r="D59" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E59">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E59" s="6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>-2.9999999999999888E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1479,11 +1665,14 @@
       <c r="D60" s="2">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="E60">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E60" s="6">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>-4.9999999999999906E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1496,11 +1685,14 @@
       <c r="D61" s="2">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="E61">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E61" s="6">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F61" s="1">
+        <v>-9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -1513,11 +1705,14 @@
       <c r="D62" s="2">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E62">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E62" s="6">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1530,11 +1725,14 @@
       <c r="D63" s="2">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E63">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E63" s="6">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>-5.9999999999999915E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1547,11 +1745,14 @@
       <c r="D64" s="2">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E64">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E64" s="6">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>-1.0999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1564,11 +1765,14 @@
       <c r="D65" s="2">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="6">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" s="1">
+        <v>-5.4000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1581,11 +1785,14 @@
       <c r="D66" s="2">
         <v>0.123</v>
       </c>
-      <c r="E66">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E66" s="6">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>-2.6999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1598,11 +1805,14 @@
       <c r="D67" s="2">
         <v>0.106</v>
       </c>
-      <c r="E67">
-        <v>0.25600000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E67" s="6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1615,11 +1825,14 @@
       <c r="D68" s="2">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E68">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E68" s="6">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>-9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -1632,11 +1845,14 @@
       <c r="D69" s="2">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E69">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E69" s="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -1649,11 +1865,14 @@
       <c r="D70" s="2">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E70">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E70" s="6">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F70" s="1">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1666,11 +1885,14 @@
       <c r="D71" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E71">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E71" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1683,11 +1905,14 @@
       <c r="D72" s="2">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E72">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E72" s="6">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>-8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -1700,11 +1925,14 @@
       <c r="D73" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="E73">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E73" s="6">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F73" s="1">
+        <v>-5.9999999999999984E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -1717,11 +1945,14 @@
       <c r="D74" s="2">
         <v>0.06</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="6">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74" s="1">
+        <v>-6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -1734,11 +1965,14 @@
       <c r="D75" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E75">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E75" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -1751,11 +1985,14 @@
       <c r="D76" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E76">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E76" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F76" s="1">
+        <v>-1.1999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1768,11 +2005,14 @@
       <c r="D77" s="2">
         <v>0.10199999999999999</v>
       </c>
-      <c r="E77">
-        <v>0.30299999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E77" s="6">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -1785,11 +2025,14 @@
       <c r="D78" s="2">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E78">
-        <v>0.39200000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E78" s="6">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1802,11 +2045,14 @@
       <c r="D79" s="2">
         <v>0.121</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="6">
         <v>0.88800000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79" s="1">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -1819,11 +2065,14 @@
       <c r="D80" s="2">
         <v>0.123</v>
       </c>
-      <c r="E80">
-        <v>0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E80" s="6">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -1836,11 +2085,14 @@
       <c r="D81" s="2">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E81">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E81" s="6">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -1853,11 +2105,14 @@
       <c r="D82" s="2">
         <v>0.121</v>
       </c>
-      <c r="E82">
-        <v>0.29299999999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E82" s="6">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -1870,11 +2125,14 @@
       <c r="D83" s="2">
         <v>0.14899999999999999</v>
       </c>
-      <c r="E83">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E83" s="6">
+        <v>0.751</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -1887,11 +2145,14 @@
       <c r="D84" s="2">
         <v>0.16</v>
       </c>
-      <c r="E84">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E84" s="6">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -1904,11 +2165,14 @@
       <c r="D85" s="2">
         <v>0.151</v>
       </c>
-      <c r="E85">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E85" s="6">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -1921,11 +2185,14 @@
       <c r="D86" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E86">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E86" s="6">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.45399999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -1938,11 +2205,14 @@
       <c r="D87" s="2">
         <v>0.108</v>
       </c>
-      <c r="E87">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E87" s="6">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1955,11 +2225,14 @@
       <c r="D88" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E88">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E88" s="6">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.15799999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -1972,11 +2245,14 @@
       <c r="D89" s="2">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E89">
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E89" s="6">
+        <v>0.374</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -1989,11 +2265,14 @@
       <c r="D90" s="2">
         <v>0.115</v>
       </c>
-      <c r="E90">
-        <v>0.67800000000000005</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E90" s="6">
+        <v>0.248</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2006,11 +2285,14 @@
       <c r="D91" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="E91">
-        <v>0.84399999999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E91" s="6">
+        <v>0.185</v>
+      </c>
+      <c r="F91" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2023,11 +2305,14 @@
       <c r="D92" s="2">
         <v>0.12</v>
       </c>
-      <c r="E92">
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E92" s="6">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2040,11 +2325,14 @@
       <c r="D93" s="2">
         <v>0.126</v>
       </c>
-      <c r="E93">
-        <v>0.248</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E93" s="6">
+        <v>0.187</v>
+      </c>
+      <c r="F93" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2057,11 +2345,14 @@
       <c r="D94" s="2">
         <v>0.10199999999999999</v>
       </c>
-      <c r="E94">
-        <v>0.30399999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E94" s="6">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F94" s="1">
+        <v>3.0000000000000013E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2074,11 +2365,14 @@
       <c r="D95" s="2">
         <v>0.113</v>
       </c>
-      <c r="E95">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E95" s="6">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.12199999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2091,11 +2385,14 @@
       <c r="D96" s="2">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E96">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E96" s="6">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F96" s="1">
+        <v>4.200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2108,11 +2405,14 @@
       <c r="D97" s="2">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="E97">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E97" s="6">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F97" s="1">
+        <v>8.7999999999999981E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2125,11 +2425,14 @@
       <c r="D98" s="2">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E98">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E98" s="6">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F98" s="1">
+        <v>8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2142,11 +2445,14 @@
       <c r="D99" s="2">
         <v>7.8E-2</v>
       </c>
-      <c r="E99">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E99" s="6">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -2159,11 +2465,14 @@
       <c r="D100" s="2">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="E100">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E100" s="6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F100" s="1">
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2176,11 +2485,14 @@
       <c r="D101" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="E101">
-        <v>0.751</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E101" s="6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2193,11 +2505,14 @@
       <c r="D102" s="2">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="E102">
-        <v>0.86399999999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E102" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F102" s="1">
+        <v>-9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2210,11 +2525,14 @@
       <c r="D103" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E103">
-        <v>0.99299999999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E103" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F103" s="1">
+        <v>-2.9999999999999957E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2227,11 +2545,14 @@
       <c r="D104" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E104">
-        <v>0.29899999999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E104" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F104" s="1">
+        <v>-1.2000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -2244,11 +2565,14 @@
       <c r="D105" s="2">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E105">
-        <v>0.374</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E105" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F105" s="1">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -2261,11 +2585,14 @@
       <c r="D106" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E106">
-        <v>0.58799999999999997</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E106" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>-2.9999999999999957E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -2278,11 +2605,14 @@
       <c r="D107" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E107">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E107" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-9.9999999999999395E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -2295,11 +2625,14 @@
       <c r="D108" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E108">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E108" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F108" s="1">
+        <v>-1.9999999999999948E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -2312,11 +2645,14 @@
       <c r="D109" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E109">
-        <v>0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E109" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F109" s="1">
+        <v>-5.9999999999999984E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -2329,11 +2665,14 @@
       <c r="D110" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F110" s="1">
+        <v>-3.9999999999999966E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2346,11 +2685,14 @@
       <c r="D111" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E111">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E111" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F111" s="1">
+        <v>-5.9999999999999984E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -2363,11 +2705,14 @@
       <c r="D112" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E112">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E112" s="6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F112" s="1">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -2380,11 +2725,14 @@
       <c r="D113" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E113">
-        <v>1.0009999999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E113" s="2">
+        <v>1.034</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -2397,11 +2745,14 @@
       <c r="D114" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E114">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E114" s="2">
+        <v>1.008</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -2414,11 +2765,14 @@
       <c r="D115" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2">
         <v>1.1259999999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F115" s="1">
+        <v>1.083</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -2431,11 +2785,14 @@
       <c r="D116" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E116">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E116" s="2">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.97199999999999986</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -2448,11 +2805,14 @@
       <c r="D117" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E117">
-        <v>0.94399999999999995</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E117" s="2">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1.0630000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -2465,11 +2825,14 @@
       <c r="D118" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E118">
-        <v>1.024</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E118" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -2482,11 +2845,14 @@
       <c r="D119" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E119">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E119" s="2">
+        <v>1.083</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -2499,11 +2865,14 @@
       <c r="D120" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E120">
-        <v>0.95099999999999996</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E120" s="2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -2516,11 +2885,14 @@
       <c r="D121" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E121">
-        <v>1.0149999999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -2533,11 +2905,14 @@
       <c r="D122" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E122">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E122" s="2">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0.91399999999999992</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -2550,11 +2925,14 @@
       <c r="D123" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E123">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E123" s="2">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0.91299999999999992</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -2567,11 +2945,14 @@
       <c r="D124" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E124">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E124" s="2">
+        <v>1.024</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -2584,11 +2965,14 @@
       <c r="D125" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E125">
-        <v>0.98799999999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E125" s="2">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.93199999999999994</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -2601,11 +2985,14 @@
       <c r="D126" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E126">
-        <v>1.1060000000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E126" s="2">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.96199999999999986</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -2618,11 +3005,14 @@
       <c r="D127" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E127">
-        <v>1.008</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E127" s="2">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -2635,11 +3025,14 @@
       <c r="D128" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E128">
-        <v>0.96199999999999997</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E128" s="2">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0.91299999999999992</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -2652,11 +3045,14 @@
       <c r="D129" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E129">
-        <v>1.0049999999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E129" s="2">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.91899999999999993</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -2669,11 +3065,14 @@
       <c r="D130" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E130">
-        <v>0.95899999999999996</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E130" s="2">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0.96599999999999986</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -2686,11 +3085,14 @@
       <c r="D131" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E131">
-        <v>0.77300000000000002</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E131" s="2">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -2703,11 +3105,14 @@
       <c r="D132" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E132">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E132" s="2">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0.91799999999999993</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -2720,11 +3125,14 @@
       <c r="D133" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E133">
-        <v>0.96199999999999997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E133" s="2">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.97199999999999986</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -2737,11 +3145,14 @@
       <c r="D134" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E134">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E134" s="2">
+        <v>1.022</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -2754,11 +3165,14 @@
       <c r="D135" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E135">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E135" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1.0170000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -2771,11 +3185,14 @@
       <c r="D136" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E136">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E136" s="2">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0.90699999999999992</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -2788,11 +3205,14 @@
       <c r="D137" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E137">
-        <v>1.083</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E137" s="2">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -2805,11 +3225,14 @@
       <c r="D138" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E138">
-        <v>1.0149999999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E138" s="2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -2822,11 +3245,14 @@
       <c r="D139" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E139">
-        <v>1.034</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E139" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0.14700000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -2839,11 +3265,14 @@
       <c r="D140" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E140">
-        <v>0.95599999999999996</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E140" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F140" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -2856,11 +3285,14 @@
       <c r="D141" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E141">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E141" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F141" s="1">
+        <v>4.0999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -2873,11 +3305,14 @@
       <c r="D142" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E142">
-        <v>0.95599999999999996</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E142" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F142" s="1">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -2890,11 +3325,14 @@
       <c r="D143" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E143">
-        <v>0.64100000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E143" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F143" s="1">
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -2907,11 +3345,14 @@
       <c r="D144" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E144">
-        <v>1.022</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E144" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F144" s="1">
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -2924,11 +3365,14 @@
       <c r="D145" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E145">
-        <v>0.98199999999999998</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E145" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F145" s="1">
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -2941,11 +3385,14 @@
       <c r="D146" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F146" s="1">
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -2958,11 +3405,14 @@
       <c r="D147" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F147" s="1">
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -2975,11 +3425,14 @@
       <c r="D148" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E148">
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E148" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F148" s="1">
+        <v>-4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -2992,8 +3445,11 @@
       <c r="E149" s="3">
         <v>0.93799999999999994</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F149" s="1">
+        <v>0.87799999999999989</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -3006,8 +3462,11 @@
       <c r="E150" s="3">
         <v>0.82199999999999995</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F150" s="1">
+        <v>0.7609999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -3020,8 +3479,11 @@
       <c r="E151" s="3">
         <v>0.88100000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F151" s="1">
+        <v>0.81099999999999994</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -3032,13 +3494,16 @@
         <v>12</v>
       </c>
       <c r="D152">
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E152">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0.49799999999999994</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>3</v>
       </c>
@@ -3049,13 +3514,16 @@
         <v>12</v>
       </c>
       <c r="D153">
-        <v>7.3999999999999996E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E153">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -3071,8 +3539,11 @@
       <c r="E154">
         <v>0.50900000000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F154" s="1">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -3083,13 +3554,16 @@
         <v>12</v>
       </c>
       <c r="D155">
-        <v>6.7000000000000004E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E155">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -3100,13 +3574,16 @@
         <v>12</v>
       </c>
       <c r="D156">
-        <v>7.0000000000000007E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E156">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>3</v>
       </c>
@@ -3117,13 +3594,16 @@
         <v>12</v>
       </c>
       <c r="D157">
-        <v>7.2999999999999995E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E157">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.312</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -3134,13 +3614,16 @@
         <v>12</v>
       </c>
       <c r="D158">
-        <v>6.7000000000000004E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E158">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -3151,13 +3634,16 @@
         <v>12</v>
       </c>
       <c r="D159">
-        <v>6.7000000000000004E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E159">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0.20900000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -3168,13 +3654,16 @@
         <v>12</v>
       </c>
       <c r="D160">
-        <v>6.7000000000000004E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E160">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.245</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0.16999999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>3</v>
       </c>
@@ -3185,13 +3674,16 @@
         <v>12</v>
       </c>
       <c r="D161">
-        <v>6.7000000000000004E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E161">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.129</v>
+      </c>
+      <c r="F161" s="1">
+        <v>5.7000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>3</v>
       </c>
@@ -3202,13 +3694,16 @@
         <v>12</v>
       </c>
       <c r="D162">
-        <v>6.3E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E162">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F162" s="1">
+        <v>6.1000000000000013E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>3</v>
       </c>
@@ -3219,13 +3714,16 @@
         <v>12</v>
       </c>
       <c r="D163">
-        <v>6.5000000000000002E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E163">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F163" s="1">
+        <v>6.5000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>3</v>
       </c>
@@ -3236,13 +3734,16 @@
         <v>12</v>
       </c>
       <c r="D164">
-        <v>7.1999999999999995E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E164">
-        <v>0.28100000000000003</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.106</v>
+      </c>
+      <c r="F164" s="1">
+        <v>3.8999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>3</v>
       </c>
@@ -3253,13 +3754,16 @@
         <v>12</v>
       </c>
       <c r="D165">
-        <v>7.3999999999999996E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E165">
-        <v>0.38100000000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.109</v>
+      </c>
+      <c r="F165" s="1">
+        <v>4.1999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>3</v>
       </c>
@@ -3270,13 +3774,16 @@
         <v>12</v>
       </c>
       <c r="D166">
-        <v>6.8000000000000005E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E166">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F166" s="1">
+        <v>3.1999999999999987E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -3287,13 +3794,16 @@
         <v>12</v>
       </c>
       <c r="D167">
-        <v>7.0999999999999994E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E167">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F167" s="1">
+        <v>2.0999999999999991E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>3</v>
       </c>
@@ -3304,13 +3814,16 @@
         <v>12</v>
       </c>
       <c r="D168">
-        <v>6.7000000000000004E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E168">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>3</v>
       </c>
@@ -3321,13 +3834,16 @@
         <v>12</v>
       </c>
       <c r="D169">
-        <v>7.1999999999999995E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E169">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F169" s="1">
+        <v>2.0999999999999991E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -3338,13 +3854,16 @@
         <v>12</v>
       </c>
       <c r="D170">
-        <v>6.9000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E170">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1.5999999999999986E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>3</v>
       </c>
@@ -3355,13 +3874,16 @@
         <v>12</v>
       </c>
       <c r="D171">
-        <v>6.4000000000000001E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E171">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F171" s="1">
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -3372,13 +3894,16 @@
         <v>12</v>
       </c>
       <c r="D172">
-        <v>7.0999999999999994E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E172">
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F172" s="1">
+        <v>2.0999999999999991E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>3</v>
       </c>
@@ -3389,13 +3914,16 @@
         <v>12</v>
       </c>
       <c r="D173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E173">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F173" s="1">
+        <v>-3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>3</v>
       </c>
@@ -3409,10 +3937,13 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="E174">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F174" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -3426,10 +3957,13 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="E175">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>3</v>
       </c>
@@ -3440,13 +3974,16 @@
         <v>12</v>
       </c>
       <c r="D176">
-        <v>7.5999999999999998E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E176">
-        <v>0.26400000000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F176" s="1">
+        <v>-1.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>3</v>
       </c>
@@ -3457,13 +3994,16 @@
         <v>12</v>
       </c>
       <c r="D177">
-        <v>7.3999999999999996E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E177">
-        <v>0.38600000000000001</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F177" s="1">
+        <v>-1.3000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -3474,13 +4014,16 @@
         <v>12</v>
       </c>
       <c r="D178">
-        <v>6.5000000000000002E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E178">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F178" s="1">
+        <v>-2.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>3</v>
       </c>
@@ -3491,13 +4034,16 @@
         <v>12</v>
       </c>
       <c r="D179">
-        <v>7.0000000000000007E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E179">
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F179" s="1">
+        <v>-6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>3</v>
       </c>
@@ -3511,10 +4057,13 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="E180">
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F180" s="1">
+        <v>-1.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>3</v>
       </c>
@@ -3525,13 +4074,16 @@
         <v>12</v>
       </c>
       <c r="D181">
-        <v>7.1999999999999995E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E181">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F181" s="1">
+        <v>-1.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>3</v>
       </c>
@@ -3542,13 +4094,16 @@
         <v>12</v>
       </c>
       <c r="D182">
-        <v>6.7000000000000004E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E182">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F182" s="1">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>3</v>
       </c>
@@ -3559,13 +4114,16 @@
         <v>12</v>
       </c>
       <c r="D183">
-        <v>6.5000000000000002E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E183">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F183" s="1">
+        <v>-1.2000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>3</v>
       </c>
@@ -3576,13 +4134,16 @@
         <v>12</v>
       </c>
       <c r="D184">
-        <v>7.0000000000000007E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E184">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F184" s="1">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +4159,11 @@
       <c r="E185">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F185" s="1">
+        <v>-1.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>3</v>
       </c>
@@ -3610,13 +4174,16 @@
         <v>12</v>
       </c>
       <c r="D186">
-        <v>6.4000000000000001E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E186">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F186" s="1">
+        <v>-1.2000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -3627,13 +4194,16 @@
         <v>12</v>
       </c>
       <c r="D187">
-        <v>6.3E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E187">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F187" s="1">
+        <v>-1.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -3644,13 +4214,16 @@
         <v>12</v>
       </c>
       <c r="D188">
-        <v>0.17499999999999999</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E188">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F188" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -3661,13 +4234,16 @@
         <v>12</v>
       </c>
       <c r="D189">
-        <v>0.17599999999999999</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E189">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0.11800000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -3681,10 +4257,13 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="E190">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F190" s="1">
+        <v>0.10300000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -3695,13 +4274,16 @@
         <v>12</v>
       </c>
       <c r="D191">
-        <v>0.28499999999999998</v>
+        <v>0.123</v>
       </c>
       <c r="E191">
-        <v>0.157</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F191" s="1">
+        <v>7.1000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -3712,13 +4294,16 @@
         <v>12</v>
       </c>
       <c r="D192">
-        <v>0.185</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="E192">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.183</v>
+      </c>
+      <c r="F192" s="1">
+        <v>4.4999999999999984E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -3729,13 +4314,16 @@
         <v>12</v>
       </c>
       <c r="D193">
-        <v>0.152</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E193">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.187</v>
+      </c>
+      <c r="F193" s="1">
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -3746,13 +4334,16 @@
         <v>12</v>
       </c>
       <c r="D194">
-        <v>0.247</v>
+        <v>0.15</v>
       </c>
       <c r="E194">
-        <v>0.157</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.182</v>
+      </c>
+      <c r="F194" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -3763,13 +4354,16 @@
         <v>12</v>
       </c>
       <c r="D195">
-        <v>0.24399999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="E195">
-        <v>0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.185</v>
+      </c>
+      <c r="F195" s="1">
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -3780,13 +4374,16 @@
         <v>12</v>
       </c>
       <c r="D196">
-        <v>0.218</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E196">
-        <v>0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.189</v>
+      </c>
+      <c r="F196" s="1">
+        <v>1.4000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -3797,13 +4394,16 @@
         <v>12</v>
       </c>
       <c r="D197">
-        <v>0.33500000000000002</v>
+        <v>0.19</v>
       </c>
       <c r="E197">
-        <v>0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F197" s="1">
+        <v>-5.2999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -3814,13 +4414,16 @@
         <v>12</v>
       </c>
       <c r="D198">
-        <v>0.35199999999999998</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="E198">
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.189</v>
+      </c>
+      <c r="F198" s="1">
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -3831,13 +4434,16 @@
         <v>12</v>
       </c>
       <c r="D199">
-        <v>0.48599999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="E199">
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.157</v>
+      </c>
+      <c r="F199" s="1">
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -3848,13 +4454,16 @@
         <v>12</v>
       </c>
       <c r="D200">
-        <v>0.17699999999999999</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="E200">
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.13</v>
+      </c>
+      <c r="F200" s="1">
+        <v>-0.11099999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -3865,13 +4474,16 @@
         <v>12</v>
       </c>
       <c r="D201">
-        <v>0.13800000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="E201">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F201" s="1">
+        <v>-2.1000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -3882,13 +4494,16 @@
         <v>12</v>
       </c>
       <c r="D202">
-        <v>8.3000000000000004E-2</v>
+        <v>0.185</v>
       </c>
       <c r="E202">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F202" s="1">
+        <v>-4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -3899,13 +4514,16 @@
         <v>12</v>
       </c>
       <c r="D203">
-        <v>0.22700000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="E203">
-        <v>0.13100000000000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F203" s="1">
+        <v>-8.299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -3916,13 +4534,16 @@
         <v>12</v>
       </c>
       <c r="D204">
-        <v>0.19800000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="E204">
-        <v>0.11600000000000001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.17</v>
+      </c>
+      <c r="F204" s="1">
+        <v>-5.6999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -3933,13 +4554,16 @@
         <v>12</v>
       </c>
       <c r="D205">
-        <v>0.18099999999999999</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="E205">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F205" s="1">
+        <v>-0.14599999999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -3950,13 +4574,16 @@
         <v>12</v>
       </c>
       <c r="D206">
-        <v>0.309</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="E206">
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F206" s="1">
+        <v>-0.10999999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -3967,13 +4594,16 @@
         <v>12</v>
       </c>
       <c r="D207">
-        <v>0.27</v>
+        <v>0.249</v>
       </c>
       <c r="E207">
-        <v>0.17699999999999999</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F207" s="1">
+        <v>-0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -3984,13 +4614,16 @@
         <v>12</v>
       </c>
       <c r="D208">
-        <v>0.249</v>
+        <v>0.218</v>
       </c>
       <c r="E208">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.157</v>
+      </c>
+      <c r="F208" s="1">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -4001,13 +4634,16 @@
         <v>12</v>
       </c>
       <c r="D209">
-        <v>0.41299999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="E209">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F209" s="1">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -4018,13 +4654,16 @@
         <v>12</v>
       </c>
       <c r="D210">
-        <v>0.32200000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="E210">
-        <v>0.183</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F210" s="1">
+        <v>-0.15400000000000003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -4035,13 +4674,16 @@
         <v>12</v>
       </c>
       <c r="D211">
-        <v>0.50900000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="E211">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F211" s="1">
+        <v>-0.15999999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -4052,13 +4694,16 @@
         <v>12</v>
       </c>
       <c r="D212">
-        <v>0.15</v>
+        <v>0.217</v>
       </c>
       <c r="E212">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F212" s="1">
+        <v>-0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -4069,13 +4714,16 @@
         <v>12</v>
       </c>
       <c r="D213">
-        <v>0.123</v>
+        <v>0.309</v>
       </c>
       <c r="E213">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F213" s="1">
+        <v>-0.222</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -4086,13 +4734,16 @@
         <v>12</v>
       </c>
       <c r="D214">
-        <v>8.4000000000000005E-2</v>
+        <v>0.247</v>
       </c>
       <c r="E214">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F214" s="1">
+        <v>-0.16899999999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -4103,13 +4754,16 @@
         <v>12</v>
       </c>
       <c r="D215">
-        <v>0.216</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E215">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.08</v>
+      </c>
+      <c r="F215" s="1">
+        <v>-0.49499999999999994</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -4120,13 +4774,16 @@
         <v>12</v>
       </c>
       <c r="D216">
-        <v>0.24099999999999999</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E216">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F216" s="1">
+        <v>-0.41800000000000004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -4137,13 +4794,16 @@
         <v>12</v>
       </c>
       <c r="D217">
-        <v>0.19</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="E217">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.09</v>
+      </c>
+      <c r="F217" s="1">
+        <v>-0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -4154,13 +4814,16 @@
         <v>12</v>
       </c>
       <c r="D218">
-        <v>0.217</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="E218">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F218" s="1">
+        <v>-0.27699999999999997</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -4171,13 +4834,16 @@
         <v>12</v>
       </c>
       <c r="D219">
-        <v>0.19</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="E219">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F219" s="1">
+        <v>-0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -4188,13 +4854,16 @@
         <v>12</v>
       </c>
       <c r="D220">
-        <v>0.20599999999999999</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E220">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.08</v>
+      </c>
+      <c r="F220" s="1">
+        <v>-0.27199999999999996</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -4208,10 +4877,13 @@
         <v>0.379</v>
       </c>
       <c r="E221">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F221" s="1">
+        <v>-0.28300000000000003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -4222,13 +4894,16 @@
         <v>12</v>
       </c>
       <c r="D222">
-        <v>0.35499999999999998</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="E222">
-        <v>0.19400000000000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F222" s="1">
+        <v>-0.31699999999999995</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -4239,13 +4914,16 @@
         <v>12</v>
       </c>
       <c r="D223">
-        <v>0.57499999999999996</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E223">
-        <v>0.182</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F223" s="1">
+        <v>-0.23300000000000004</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -4256,13 +4934,16 @@
         <v>12</v>
       </c>
       <c r="D224">
-        <v>7.3999999999999996E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E224">
-        <v>0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0.71500000000000008</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -4273,13 +4954,16 @@
         <v>12</v>
       </c>
       <c r="D225">
-        <v>6.6000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E225">
-        <v>0.66700000000000004</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -4295,8 +4979,11 @@
       <c r="E226">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F226" s="1">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -4307,13 +4994,16 @@
         <v>12</v>
       </c>
       <c r="D227">
-        <v>6.9000000000000006E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E227">
-        <v>1.012</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -4324,13 +5014,16 @@
         <v>12</v>
       </c>
       <c r="D228">
-        <v>6.9000000000000006E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E228">
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -4341,13 +5034,16 @@
         <v>12</v>
       </c>
       <c r="D229">
-        <v>7.0999999999999994E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E229">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -4358,13 +5054,16 @@
         <v>12</v>
       </c>
       <c r="D230">
-        <v>7.0000000000000007E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E230">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.038</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0.96400000000000008</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -4375,13 +5074,16 @@
         <v>12</v>
       </c>
       <c r="D231">
-        <v>6.9000000000000006E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E231">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.748</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -4392,13 +5094,16 @@
         <v>12</v>
       </c>
       <c r="D232">
-        <v>7.0000000000000007E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E232">
-        <v>0.40699999999999997</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -4409,13 +5114,16 @@
         <v>12</v>
       </c>
       <c r="D233">
-        <v>5.7000000000000002E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E233">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="F233" s="1">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -4426,13 +5134,16 @@
         <v>12</v>
       </c>
       <c r="D234">
-        <v>5.5E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E234">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.72</v>
+      </c>
+      <c r="F234" s="1">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -4443,13 +5154,16 @@
         <v>12</v>
       </c>
       <c r="D235">
-        <v>6.0999999999999999E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E235">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.68</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0.6090000000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -4460,13 +5174,16 @@
         <v>12</v>
       </c>
       <c r="D236">
-        <v>7.5999999999999998E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E236">
-        <v>0.748</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F236" s="1">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -4477,13 +5194,16 @@
         <v>12</v>
       </c>
       <c r="D237">
-        <v>6.6000000000000003E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E237">
-        <v>0.76400000000000001</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.79</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0.71900000000000008</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -4494,13 +5214,16 @@
         <v>12</v>
       </c>
       <c r="D238">
-        <v>7.4999999999999997E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E238">
-        <v>0.75700000000000001</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.877</v>
+      </c>
+      <c r="F238" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -4511,13 +5234,16 @@
         <v>12</v>
       </c>
       <c r="D239">
-        <v>6.7000000000000004E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E239">
-        <v>0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0.84800000000000009</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -4528,13 +5254,16 @@
         <v>12</v>
       </c>
       <c r="D240">
-        <v>7.0999999999999994E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E240">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.82</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0.75299999999999989</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -4545,13 +5274,16 @@
         <v>12</v>
       </c>
       <c r="D241">
-        <v>7.3999999999999996E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E241">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.012</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0.94300000000000006</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -4562,13 +5294,16 @@
         <v>12</v>
       </c>
       <c r="D242">
-        <v>6.3E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E242">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -4579,13 +5314,16 @@
         <v>12</v>
       </c>
       <c r="D243">
-        <v>6.9000000000000006E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E243">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0.34400000000000003</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -4596,13 +5334,16 @@
         <v>12</v>
       </c>
       <c r="D244">
-        <v>6.2E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E244">
-        <v>0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="F244" s="1">
+        <v>0.33699999999999997</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -4613,13 +5354,16 @@
         <v>12</v>
       </c>
       <c r="D245">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E245">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.113</v>
+      </c>
+      <c r="F245" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -4630,13 +5374,16 @@
         <v>12</v>
       </c>
       <c r="D246">
-        <v>5.2999999999999999E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E246">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F246" s="1">
+        <v>4.8999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -4647,13 +5394,16 @@
         <v>12</v>
       </c>
       <c r="D247">
-        <v>5.8000000000000003E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E247">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.126</v>
+      </c>
+      <c r="F247" s="1">
+        <v>5.6999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -4664,13 +5414,16 @@
         <v>12</v>
       </c>
       <c r="D248">
-        <v>7.3999999999999996E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E248">
-        <v>1.038</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F248" s="1">
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -4681,13 +5434,16 @@
         <v>12</v>
       </c>
       <c r="D249">
-        <v>6.2E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E249">
-        <v>0.89500000000000002</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F249" s="1">
+        <v>2.3999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -4698,13 +5454,16 @@
         <v>12</v>
       </c>
       <c r="D250">
-        <v>6.9000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E250">
-        <v>0.78400000000000003</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F250" s="1">
+        <v>-5.4000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -4715,13 +5474,16 @@
         <v>12</v>
       </c>
       <c r="D251">
-        <v>7.0999999999999994E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E251">
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F251" s="1">
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -4732,13 +5494,16 @@
         <v>12</v>
       </c>
       <c r="D252">
-        <v>7.2999999999999995E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E252">
-        <v>0.96199999999999997</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F252" s="1">
+        <v>2.9999999999999957E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -4749,13 +5514,16 @@
         <v>12</v>
       </c>
       <c r="D253">
-        <v>7.0999999999999994E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E253">
-        <v>0.94799999999999995</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F253" s="1">
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -4766,13 +5534,16 @@
         <v>12</v>
       </c>
       <c r="D254">
-        <v>7.1999999999999995E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E254">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F254" s="1">
+        <v>-1.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -4783,13 +5554,16 @@
         <v>12</v>
       </c>
       <c r="D255">
-        <v>7.0000000000000007E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E255">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F255" s="1">
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -4800,13 +5574,16 @@
         <v>12</v>
       </c>
       <c r="D256">
-        <v>6.7000000000000004E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E256">
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F256" s="1">
+        <v>-3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -4822,8 +5599,11 @@
       <c r="E257">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F257" s="1">
+        <v>-6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -4834,13 +5614,16 @@
         <v>12</v>
       </c>
       <c r="D258">
-        <v>7.4999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E258">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F258" s="1">
+        <v>-3.9999999999999966E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -4851,13 +5634,16 @@
         <v>12</v>
       </c>
       <c r="D259">
-        <v>5.6000000000000001E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E259">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F259" s="1">
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>9</v>
       </c>
@@ -4868,13 +5654,16 @@
         <v>12</v>
       </c>
       <c r="D260">
-        <v>7.0999999999999994E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E260">
-        <v>0.17699999999999999</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="F260" s="1">
+        <v>0.57500000000000007</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -4885,13 +5674,16 @@
         <v>12</v>
       </c>
       <c r="D261">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E261">
-        <v>0.48199999999999998</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.47</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0.38899999999999996</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>9</v>
       </c>
@@ -4907,8 +5699,11 @@
       <c r="E262">
         <v>0.48199999999999998</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F262" s="1">
+        <v>0.40099999999999997</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>9</v>
       </c>
@@ -4919,13 +5714,16 @@
         <v>12</v>
       </c>
       <c r="D263">
-        <v>7.0000000000000007E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E263">
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F263" s="1">
+        <v>0.15100000000000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>9</v>
       </c>
@@ -4936,13 +5734,16 @@
         <v>12</v>
       </c>
       <c r="D264">
-        <v>6.7000000000000004E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E264">
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.222</v>
+      </c>
+      <c r="F264" s="1">
+        <v>0.14500000000000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -4953,13 +5754,16 @@
         <v>12</v>
       </c>
       <c r="D265">
-        <v>6.7000000000000004E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E265">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="F265" s="1">
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>9</v>
       </c>
@@ -4970,13 +5774,16 @@
         <v>12</v>
       </c>
       <c r="D266">
-        <v>7.8E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E266">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.219</v>
+      </c>
+      <c r="F266" s="1">
+        <v>0.14800000000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>9</v>
       </c>
@@ -4987,13 +5794,16 @@
         <v>12</v>
       </c>
       <c r="D267">
-        <v>7.0000000000000007E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E267">
-        <v>0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F267" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -5007,10 +5817,13 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="E268">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F268" s="1">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -5021,13 +5834,16 @@
         <v>12</v>
       </c>
       <c r="D269">
-        <v>6.9000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E269">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+      <c r="F269" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>9</v>
       </c>
@@ -5038,13 +5854,16 @@
         <v>12</v>
       </c>
       <c r="D270">
-        <v>7.5999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E270">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.13</v>
+      </c>
+      <c r="F270" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>9</v>
       </c>
@@ -5055,13 +5874,16 @@
         <v>12</v>
       </c>
       <c r="D271">
-        <v>7.0999999999999994E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E271">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F271" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -5072,13 +5894,16 @@
         <v>12</v>
       </c>
       <c r="D272">
-        <v>6.7000000000000004E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E272">
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.183</v>
+      </c>
+      <c r="F272" s="1">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -5089,13 +5914,16 @@
         <v>12</v>
       </c>
       <c r="D273">
-        <v>7.6999999999999999E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E273">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F273" s="1">
+        <v>8.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>9</v>
       </c>
@@ -5106,13 +5934,16 @@
         <v>12</v>
       </c>
       <c r="D274">
-        <v>8.1000000000000003E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E274">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F274" s="1">
+        <v>2.3999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -5123,13 +5954,16 @@
         <v>12</v>
       </c>
       <c r="D275">
-        <v>7.2999999999999995E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E275">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F275" s="1">
+        <v>5.1999999999999991E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -5140,13 +5974,16 @@
         <v>12</v>
       </c>
       <c r="D276">
-        <v>7.3999999999999996E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E276">
-        <v>0.16200000000000001</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.18</v>
+      </c>
+      <c r="F276" s="1">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>9</v>
       </c>
@@ -5157,13 +5994,16 @@
         <v>12</v>
       </c>
       <c r="D277">
-        <v>6.9000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E277">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F277" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -5174,13 +6014,16 @@
         <v>12</v>
       </c>
       <c r="D278">
-        <v>7.1999999999999995E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E278">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F278" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -5191,13 +6034,16 @@
         <v>12</v>
       </c>
       <c r="D279">
-        <v>7.4999999999999997E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E279">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F279" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>9</v>
       </c>
@@ -5208,13 +6054,16 @@
         <v>12</v>
       </c>
       <c r="D280">
-        <v>6.8000000000000005E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E280">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.112</v>
+      </c>
+      <c r="F280" s="1">
+        <v>4.1000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -5225,13 +6074,16 @@
         <v>12</v>
       </c>
       <c r="D281">
-        <v>6.8000000000000005E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E281">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F281" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>9</v>
       </c>
@@ -5242,13 +6094,16 @@
         <v>12</v>
       </c>
       <c r="D282">
-        <v>6.9000000000000006E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E282">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F282" s="1">
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -5259,13 +6114,16 @@
         <v>12</v>
       </c>
       <c r="D283">
-        <v>7.3999999999999996E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E283">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F283" s="1">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -5276,13 +6134,16 @@
         <v>12</v>
       </c>
       <c r="D284">
-        <v>7.0999999999999994E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E284">
-        <v>0.219</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F284" s="1">
+        <v>1.1999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -5293,13 +6154,16 @@
         <v>12</v>
       </c>
       <c r="D285">
-        <v>7.5999999999999998E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E285">
-        <v>0.22700000000000001</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F285" s="1">
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>9</v>
       </c>
@@ -5310,13 +6174,16 @@
         <v>12</v>
       </c>
       <c r="D286">
-        <v>7.9000000000000001E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E286">
-        <v>0.65400000000000003</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F286" s="1">
+        <v>7.9999999999999932E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>9</v>
       </c>
@@ -5327,13 +6194,16 @@
         <v>12</v>
       </c>
       <c r="D287">
-        <v>6.7000000000000004E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E287">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F287" s="1">
+        <v>-3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -5344,13 +6214,16 @@
         <v>12</v>
       </c>
       <c r="D288">
-        <v>7.6999999999999999E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E288">
-        <v>0.183</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F288" s="1">
+        <v>1.2999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -5361,13 +6234,16 @@
         <v>12</v>
       </c>
       <c r="D289">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E289">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F289" s="1">
+        <v>1.4000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -5378,13 +6254,16 @@
         <v>12</v>
       </c>
       <c r="D290">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E290">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F290" s="1">
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -5398,10 +6277,13 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="E291">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F291" s="1">
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>9</v>
       </c>
@@ -5412,13 +6294,16 @@
         <v>12</v>
       </c>
       <c r="D292">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E292">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="E292">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F292" s="1">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -5434,8 +6319,11 @@
       <c r="E293">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F293" s="1">
+        <v>-1.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>9</v>
       </c>
@@ -5446,13 +6334,16 @@
         <v>12</v>
       </c>
       <c r="D294">
-        <v>7.0999999999999994E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E294">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F294" s="1">
+        <v>9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>9</v>
       </c>
@@ -5463,13 +6354,16 @@
         <v>12</v>
       </c>
       <c r="D295">
-        <v>7.5999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E295">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F295" s="1">
+        <v>-7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>10</v>
       </c>
@@ -5482,8 +6376,11 @@
       <c r="E296">
         <v>0.80400000000000005</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F296" s="1">
+        <v>0.74500000000000011</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>10</v>
       </c>
@@ -5496,8 +6393,11 @@
       <c r="E297">
         <v>0.86399999999999999</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F297" s="1">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>10</v>
       </c>
@@ -5510,8 +6410,11 @@
       <c r="E298">
         <v>0.88100000000000001</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F298" s="1">
+        <v>0.81400000000000006</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>3</v>
       </c>
@@ -5527,8 +6430,11 @@
       <c r="E299">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F299" s="1">
+        <v>0.7430000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>3</v>
       </c>
@@ -5544,8 +6450,11 @@
       <c r="E300">
         <v>0.77700000000000002</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F300" s="1">
+        <v>0.70700000000000007</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>3</v>
       </c>
@@ -5561,8 +6470,11 @@
       <c r="E301">
         <v>0.74399999999999999</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F301" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>3</v>
       </c>
@@ -5578,8 +6490,11 @@
       <c r="E302">
         <v>0.71399999999999997</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F302" s="1">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>3</v>
       </c>
@@ -5595,8 +6510,11 @@
       <c r="E303">
         <v>0.63700000000000001</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F303" s="1">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -5612,8 +6530,11 @@
       <c r="E304">
         <v>0.65100000000000002</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F304" s="1">
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>3</v>
       </c>
@@ -5629,8 +6550,11 @@
       <c r="E305">
         <v>0.72699999999999998</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F305" s="1">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>3</v>
       </c>
@@ -5646,8 +6570,11 @@
       <c r="E306">
         <v>0.63400000000000001</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F306" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>3</v>
       </c>
@@ -5663,8 +6590,11 @@
       <c r="E307">
         <v>0.66500000000000004</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F307" s="1">
+        <v>0.59000000000000008</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>3</v>
       </c>
@@ -5680,8 +6610,11 @@
       <c r="E308">
         <v>0.81699999999999995</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F308" s="1">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>3</v>
       </c>
@@ -5697,8 +6630,11 @@
       <c r="E309">
         <v>0.68100000000000005</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F309" s="1">
+        <v>0.6100000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>3</v>
       </c>
@@ -5714,8 +6650,11 @@
       <c r="E310">
         <v>0.68300000000000005</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F310" s="1">
+        <v>0.60400000000000009</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>3</v>
       </c>
@@ -5731,8 +6670,11 @@
       <c r="E311">
         <v>0.60299999999999998</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F311" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>3</v>
       </c>
@@ -5748,8 +6690,11 @@
       <c r="E312">
         <v>0.44600000000000001</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F312" s="1">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>3</v>
       </c>
@@ -5765,8 +6710,11 @@
       <c r="E313">
         <v>0.53700000000000003</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F313" s="1">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>3</v>
       </c>
@@ -5782,8 +6730,11 @@
       <c r="E314">
         <v>0.46300000000000002</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F314" s="1">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>3</v>
       </c>
@@ -5799,8 +6750,11 @@
       <c r="E315">
         <v>0.41599999999999998</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F315" s="1">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>3</v>
       </c>
@@ -5816,8 +6770,11 @@
       <c r="E316">
         <v>0.42199999999999999</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F316" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>3</v>
       </c>
@@ -5833,8 +6790,11 @@
       <c r="E317">
         <v>0.28599999999999998</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F317" s="1">
+        <v>0.21699999999999997</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>3</v>
       </c>
@@ -5850,8 +6810,11 @@
       <c r="E318">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F318" s="1">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>3</v>
       </c>
@@ -5867,8 +6830,11 @@
       <c r="E319">
         <v>0.28199999999999997</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F319" s="1">
+        <v>0.22299999999999998</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>3</v>
       </c>
@@ -5884,8 +6850,11 @@
       <c r="E320">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F320" s="1">
+        <v>-3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>3</v>
       </c>
@@ -5901,8 +6870,11 @@
       <c r="E321">
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F321" s="1">
+        <v>-3.9999999999999966E-3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>3</v>
       </c>
@@ -5918,8 +6890,11 @@
       <c r="E322">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F322" s="1">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>3</v>
       </c>
@@ -5935,8 +6910,11 @@
       <c r="E323">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F323" s="1">
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>3</v>
       </c>
@@ -5952,8 +6930,11 @@
       <c r="E324">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F324" s="1">
+        <v>-1.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -5969,8 +6950,11 @@
       <c r="E325">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F325" s="1">
+        <v>-8.9999999999999941E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>3</v>
       </c>
@@ -5986,8 +6970,11 @@
       <c r="E326">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F326" s="1">
+        <v>-3.9999999999999966E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>3</v>
       </c>
@@ -6003,8 +6990,11 @@
       <c r="E327">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F327" s="1">
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>3</v>
       </c>
@@ -6020,8 +7010,11 @@
       <c r="E328">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F328" s="1">
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>3</v>
       </c>
@@ -6037,8 +7030,11 @@
       <c r="E329">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F329" s="1">
+        <v>-6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>3</v>
       </c>
@@ -6054,8 +7050,11 @@
       <c r="E330">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F330" s="1">
+        <v>-5.9999999999999984E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>3</v>
       </c>
@@ -6071,8 +7070,11 @@
       <c r="E331">
         <v>4.9000000000000002E-2</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F331" s="1">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>3</v>
       </c>
@@ -6088,8 +7090,11 @@
       <c r="E332">
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F332" s="1">
+        <v>-1.2999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>3</v>
       </c>
@@ -6105,8 +7110,11 @@
       <c r="E333">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F333" s="1">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>3</v>
       </c>
@@ -6122,8 +7130,11 @@
       <c r="E334">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F334" s="1">
+        <v>-9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>4</v>
       </c>
@@ -6139,8 +7150,11 @@
       <c r="E335">
         <v>0.48699999999999999</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F335" s="1">
+        <v>0.34199999999999997</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>4</v>
       </c>
@@ -6156,8 +7170,11 @@
       <c r="E336">
         <v>0.46899999999999997</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F336" s="1">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>4</v>
       </c>
@@ -6173,8 +7190,11 @@
       <c r="E337">
         <v>0.56499999999999995</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F337" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>4</v>
       </c>
@@ -6190,8 +7210,11 @@
       <c r="E338">
         <v>0.48499999999999999</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F338" s="1">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>4</v>
       </c>
@@ -6207,8 +7230,11 @@
       <c r="E339">
         <v>0.48599999999999999</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F339" s="1">
+        <v>0.22799999999999998</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>4</v>
       </c>
@@ -6224,8 +7250,11 @@
       <c r="E340">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F340" s="1">
+        <v>0.32899999999999996</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>4</v>
       </c>
@@ -6241,8 +7270,11 @@
       <c r="E341">
         <v>0.48299999999999998</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F341" s="1">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>4</v>
       </c>
@@ -6258,8 +7290,11 @@
       <c r="E342">
         <v>0.30299999999999999</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F342" s="1">
+        <v>5.5999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -6275,8 +7310,11 @@
       <c r="E343">
         <v>0.377</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F343" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>4</v>
       </c>
@@ -6292,8 +7330,11 @@
       <c r="E344">
         <v>0.183</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F344" s="1">
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>4</v>
       </c>
@@ -6309,8 +7350,11 @@
       <c r="E345">
         <v>0.185</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F345" s="1">
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>4</v>
       </c>
@@ -6326,8 +7370,11 @@
       <c r="E346">
         <v>0.189</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F346" s="1">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>4</v>
       </c>
@@ -6343,8 +7390,11 @@
       <c r="E347">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F347" s="1">
+        <v>-9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>4</v>
       </c>
@@ -6360,8 +7410,11 @@
       <c r="E348">
         <v>0.19800000000000001</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F348" s="1">
+        <v>-1.4999999999999986E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>4</v>
       </c>
@@ -6377,8 +7430,11 @@
       <c r="E349">
         <v>0.20200000000000001</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F349" s="1">
+        <v>-4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -6394,8 +7450,11 @@
       <c r="E350">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F350" s="1">
+        <v>-0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -6411,8 +7470,11 @@
       <c r="E351">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F351" s="1">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>4</v>
       </c>
@@ -6428,8 +7490,11 @@
       <c r="E352">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F352" s="1">
+        <v>-7.8E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>4</v>
       </c>
@@ -6445,8 +7510,11 @@
       <c r="E353">
         <v>0.161</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F353" s="1">
+        <v>-0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -6462,8 +7530,11 @@
       <c r="E354">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F354" s="1">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>4</v>
       </c>
@@ -6479,8 +7550,11 @@
       <c r="E355">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F355" s="1">
+        <v>-6.4999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>4</v>
       </c>
@@ -6496,8 +7570,11 @@
       <c r="E356">
         <v>0.13400000000000001</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F356" s="1">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -6513,8 +7590,11 @@
       <c r="E357">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F357" s="1">
+        <v>-0.16399999999999998</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -6530,8 +7610,11 @@
       <c r="E358">
         <v>0.16800000000000001</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F358" s="1">
+        <v>-0.12599999999999997</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -6547,8 +7630,11 @@
       <c r="E359">
         <v>0.152</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F359" s="1">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>4</v>
       </c>
@@ -6564,8 +7650,11 @@
       <c r="E360">
         <v>0.13900000000000001</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F360" s="1">
+        <v>-6.9999999999999979E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -6581,8 +7670,11 @@
       <c r="E361">
         <v>0.11600000000000001</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F361" s="1">
+        <v>-0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -6598,8 +7690,11 @@
       <c r="E362">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F362" s="1">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -6615,8 +7710,11 @@
       <c r="E363">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F363" s="1">
+        <v>-0.377</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>4</v>
       </c>
@@ -6632,8 +7730,11 @@
       <c r="E364">
         <v>0.223</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F364" s="1">
+        <v>-0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>4</v>
       </c>
@@ -6649,8 +7750,11 @@
       <c r="E365">
         <v>0.182</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F365" s="1">
+        <v>-0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>4</v>
       </c>
@@ -6666,8 +7770,11 @@
       <c r="E366">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F366" s="1">
+        <v>-0.12000000000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -6683,8 +7790,11 @@
       <c r="E367">
         <v>0.185</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F367" s="1">
+        <v>-0.248</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>4</v>
       </c>
@@ -6700,8 +7810,11 @@
       <c r="E368">
         <v>0.183</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F368" s="1">
+        <v>-0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -6717,8 +7830,11 @@
       <c r="E369">
         <v>0.184</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F369" s="1">
+        <v>-0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -6734,8 +7850,11 @@
       <c r="E370">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F370" s="1">
+        <v>-0.22899999999999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -6751,8 +7870,11 @@
       <c r="E371">
         <v>0.82699999999999996</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F371" s="1">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>5</v>
       </c>
@@ -6768,8 +7890,11 @@
       <c r="E372">
         <v>0.751</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F372" s="1">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>5</v>
       </c>
@@ -6785,8 +7910,11 @@
       <c r="E373">
         <v>0.77900000000000003</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F373" s="1">
+        <v>0.70500000000000007</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>5</v>
       </c>
@@ -6802,8 +7930,11 @@
       <c r="E374">
         <v>0.82899999999999996</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F374" s="1">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>5</v>
       </c>
@@ -6819,8 +7950,11 @@
       <c r="E375">
         <v>0.80200000000000005</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F375" s="1">
+        <v>0.72500000000000009</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>5</v>
       </c>
@@ -6836,8 +7970,11 @@
       <c r="E376">
         <v>0.66400000000000003</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F376" s="1">
+        <v>0.58400000000000007</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -6853,8 +7990,11 @@
       <c r="E377">
         <v>0.85699999999999998</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F377" s="1">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>5</v>
       </c>
@@ -6870,8 +8010,11 @@
       <c r="E378">
         <v>0.88300000000000001</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F378" s="1">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>5</v>
       </c>
@@ -6887,8 +8030,11 @@
       <c r="E379">
         <v>0.873</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F379" s="1">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -6904,8 +8050,11 @@
       <c r="E380">
         <v>0.82099999999999995</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F380" s="1">
+        <v>0.75499999999999989</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>5</v>
       </c>
@@ -6921,8 +8070,11 @@
       <c r="E381">
         <v>0.80800000000000005</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F381" s="1">
+        <v>0.7390000000000001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -6938,8 +8090,11 @@
       <c r="E382">
         <v>0.84899999999999998</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F382" s="1">
+        <v>0.77899999999999991</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>5</v>
       </c>
@@ -6955,8 +8110,11 @@
       <c r="E383">
         <v>0.79600000000000004</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F383" s="1">
+        <v>0.72900000000000009</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>5</v>
       </c>
@@ -6972,8 +8130,11 @@
       <c r="E384">
         <v>0.86599999999999999</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F384" s="1">
+        <v>0.79699999999999993</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>5</v>
       </c>
@@ -6989,8 +8150,11 @@
       <c r="E385">
         <v>0.84099999999999997</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F385" s="1">
+        <v>0.77499999999999991</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>5</v>
       </c>
@@ -7006,8 +8170,11 @@
       <c r="E386">
         <v>0.82199999999999995</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F386" s="1">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>5</v>
       </c>
@@ -7023,8 +8190,11 @@
       <c r="E387">
         <v>0.747</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F387" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>5</v>
       </c>
@@ -7040,8 +8210,11 @@
       <c r="E388">
         <v>0.76900000000000002</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F388" s="1">
+        <v>0.69800000000000006</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>5</v>
       </c>
@@ -7057,8 +8230,11 @@
       <c r="E389">
         <v>0.69799999999999995</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F389" s="1">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>5</v>
       </c>
@@ -7074,8 +8250,11 @@
       <c r="E390">
         <v>0.626</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F390" s="1">
+        <v>0.55899999999999994</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>5</v>
       </c>
@@ -7091,8 +8270,11 @@
       <c r="E391">
         <v>0.72599999999999998</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F391" s="1">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -7108,8 +8290,11 @@
       <c r="E392">
         <v>0.43099999999999999</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F392" s="1">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>5</v>
       </c>
@@ -7125,8 +8310,11 @@
       <c r="E393">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F393" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -7142,8 +8330,11 @@
       <c r="E394">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F394" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>5</v>
       </c>
@@ -7159,8 +8350,11 @@
       <c r="E395">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F395" s="1">
+        <v>3.8000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -7176,8 +8370,11 @@
       <c r="E396">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F396" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>5</v>
       </c>
@@ -7193,8 +8390,11 @@
       <c r="E397">
         <v>9.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F397" s="1">
+        <v>2.3999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>5</v>
       </c>
@@ -7210,8 +8410,11 @@
       <c r="E398">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F398" s="1">
+        <v>2.2999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>5</v>
       </c>
@@ -7227,8 +8430,11 @@
       <c r="E399">
         <v>7.8E-2</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F399" s="1">
+        <v>1.2999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>5</v>
       </c>
@@ -7244,8 +8450,11 @@
       <c r="E400">
         <v>7.3999999999999996E-2</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F400" s="1">
+        <v>8.9999999999999941E-3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>5</v>
       </c>
@@ -7261,8 +8470,11 @@
       <c r="E401">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F401" s="1">
+        <v>-1.2000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>5</v>
       </c>
@@ -7278,8 +8490,11 @@
       <c r="E402">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F402" s="1">
+        <v>-1.2000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>5</v>
       </c>
@@ -7295,8 +8510,11 @@
       <c r="E403">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F403" s="1">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>5</v>
       </c>
@@ -7312,8 +8530,11 @@
       <c r="E404">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F404" s="1">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>5</v>
       </c>
@@ -7329,8 +8550,11 @@
       <c r="E405">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F405" s="1">
+        <v>-1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>5</v>
       </c>
@@ -7345,6 +8569,9 @@
       </c>
       <c r="E406">
         <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F406" s="1">
+        <v>-1.1000000000000003E-2</v>
       </c>
     </row>
   </sheetData>
